--- a/data/trans_orig/IP26C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DF8955-28D8-45C9-90F0-C444C40F82C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BCD3F7-969A-4FE1-8F28-8F8CBBE059BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B5C444C-9B15-422D-A10D-70860B8E8813}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD03545A-44CF-41D6-ABC1-5F2E91C20EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -104,223 +104,223 @@
     <t>6,73%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -332,634 +332,592 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>18,73%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>83,17%</t>
   </si>
   <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>81,27%</t>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>6,35%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>93,65%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,07%</t>
+    <t>87,9%</t>
   </si>
   <si>
     <t>90,92%</t>
@@ -1374,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756E1BED-FD26-44F7-8365-0F62EFD00CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037B62FD-944C-4233-A925-6C572F3B4016}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1850,7 +1808,7 @@
         <v>643</v>
       </c>
       <c r="D11" s="7">
-        <v>426795</v>
+        <v>426796</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>48</v>
@@ -1901,7 +1859,7 @@
         <v>713</v>
       </c>
       <c r="D12" s="7">
-        <v>472882</v>
+        <v>472883</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -2275,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A6A1FD-425A-4F37-8591-9B61CFFB8949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B9098F-48AD-4724-9F25-EF00BE6573C0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2560,16 +2518,16 @@
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>10998</v>
+        <v>10999</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2578,13 +2536,13 @@
         <v>25505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2557,13 @@
         <v>71686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>119</v>
@@ -2614,13 +2572,13 @@
         <v>81370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>219</v>
@@ -2629,13 +2587,13 @@
         <v>153056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2620,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2703,13 +2661,13 @@
         <v>49577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -2718,13 +2676,13 @@
         <v>50366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -2733,13 +2691,13 @@
         <v>99943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2712,13 @@
         <v>438213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -2769,13 +2727,13 @@
         <v>397524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1203</v>
@@ -2784,13 +2742,13 @@
         <v>835737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2816,13 @@
         <v>17200</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2873,13 +2831,13 @@
         <v>11854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -2888,13 +2846,13 @@
         <v>29054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2867,13 @@
         <v>153151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -2924,13 +2882,13 @@
         <v>151464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>431</v>
@@ -2939,10 +2897,10 @@
         <v>304616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>147</v>
@@ -3176,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E0FEC-8B54-4C37-A1B8-66609CDDFAC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D68F5-5CBB-4814-AFFC-67221C78001F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3613,7 +3571,7 @@
         <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -3622,10 +3580,10 @@
         <v>90984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>192</v>
@@ -3661,10 +3619,10 @@
         <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1263</v>
@@ -3673,13 +3631,13 @@
         <v>860375</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3705,13 @@
         <v>16887</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3762,13 +3720,13 @@
         <v>16160</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3777,13 +3735,13 @@
         <v>33047</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3756,13 @@
         <v>169270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -3813,13 +3771,13 @@
         <v>154378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>476</v>
@@ -3828,13 +3786,13 @@
         <v>323649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3860,13 @@
         <v>68652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -3917,13 +3875,13 @@
         <v>65539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -3932,13 +3890,13 @@
         <v>134191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3911,13 @@
         <v>669894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -3968,13 +3926,13 @@
         <v>631399</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>1911</v>
@@ -3983,13 +3941,13 @@
         <v>1301293</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0530DD-5637-4A28-A8E4-4C6421C6AED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C3203F-85C3-4515-940B-855AB88CB2D6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4082,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4338,13 +4296,13 @@
         <v>8787</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4353,13 +4311,13 @@
         <v>4356</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4368,13 +4326,13 @@
         <v>13143</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4347,13 @@
         <v>49970</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4404,13 +4362,13 @@
         <v>46846</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -4419,13 +4377,13 @@
         <v>96816</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4451,13 @@
         <v>52088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -4508,13 +4466,13 @@
         <v>44673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -4523,13 +4481,13 @@
         <v>96761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4502,13 @@
         <v>439855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>575</v>
@@ -4559,13 +4517,13 @@
         <v>403268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1161</v>
@@ -4574,13 +4532,13 @@
         <v>843123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4606,13 @@
         <v>21331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4663,13 +4621,13 @@
         <v>12623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4678,13 +4636,13 @@
         <v>33954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4657,13 @@
         <v>153252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>209</v>
@@ -4714,13 +4672,13 @@
         <v>138747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -4729,13 +4687,13 @@
         <v>291998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4761,13 @@
         <v>82206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -4818,13 +4776,13 @@
         <v>61652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>206</v>
@@ -4833,13 +4791,13 @@
         <v>143858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4812,13 @@
         <v>643076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>846</v>
@@ -4869,13 +4827,13 @@
         <v>590032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>1711</v>
@@ -4884,13 +4842,13 @@
         <v>1233109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP26C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BCD3F7-969A-4FE1-8F28-8F8CBBE059BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB588D88-C8B6-4304-B5EE-69E657A676F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD03545A-44CF-41D6-ABC1-5F2E91C20EE7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F7E8611-651A-4E25-A493-EE1B24749AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,859 +68,850 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037B62FD-944C-4233-A925-6C572F3B4016}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E44278-7092-4731-BE7C-25D97A7DB7E4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1450,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12247</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1465,81 +1456,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5796</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>18043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>78620</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="I5" s="7">
+        <v>80345</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>158965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,151 +1543,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86141</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177008</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>5796</v>
+        <v>47643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>12247</v>
+        <v>46087</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="N7" s="7">
-        <v>18043</v>
+        <v>93731</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>120</v>
+        <v>556</v>
       </c>
       <c r="D8" s="7">
-        <v>80345</v>
+        <v>367822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>643</v>
       </c>
       <c r="I8" s="7">
-        <v>78620</v>
+        <v>426796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>238</v>
+        <v>1199</v>
       </c>
       <c r="N8" s="7">
-        <v>158965</v>
+        <v>794617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,153 +1698,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>129</v>
+        <v>627</v>
       </c>
       <c r="D9" s="7">
-        <v>86141</v>
+        <v>415465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>472883</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>265</v>
+        <v>1340</v>
       </c>
       <c r="N9" s="7">
-        <v>177008</v>
+        <v>888348</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>46087</v>
+        <v>19017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>47643</v>
+        <v>15716</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>93731</v>
+        <v>34734</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>643</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>426796</v>
+        <v>153680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>556</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>367822</v>
+        <v>141089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1199</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>794617</v>
+        <v>294768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,153 +1853,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>713</v>
+        <v>252</v>
       </c>
       <c r="D12" s="7">
-        <v>472883</v>
+        <v>172697</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>627</v>
+        <v>234</v>
       </c>
       <c r="I12" s="7">
-        <v>415465</v>
+        <v>156805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1340</v>
+        <v>486</v>
       </c>
       <c r="N12" s="7">
-        <v>888348</v>
+        <v>329502</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="D13" s="7">
-        <v>15716</v>
+        <v>78908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I13" s="7">
-        <v>19017</v>
+        <v>67600</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="N13" s="7">
-        <v>34734</v>
+        <v>146507</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>898</v>
       </c>
       <c r="D14" s="7">
-        <v>141089</v>
+        <v>600121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>974</v>
       </c>
       <c r="I14" s="7">
-        <v>153680</v>
+        <v>648228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>435</v>
+        <v>1872</v>
       </c>
       <c r="N14" s="7">
-        <v>294768</v>
+        <v>1248351</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,216 +2008,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>234</v>
+        <v>1015</v>
       </c>
       <c r="D15" s="7">
-        <v>156805</v>
+        <v>679029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>252</v>
+        <v>1076</v>
       </c>
       <c r="I15" s="7">
-        <v>172697</v>
+        <v>715828</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>486</v>
+        <v>2091</v>
       </c>
       <c r="N15" s="7">
-        <v>329502</v>
+        <v>1394858</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>102</v>
-      </c>
-      <c r="D16" s="7">
-        <v>67600</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>117</v>
-      </c>
-      <c r="I16" s="7">
-        <v>78908</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>219</v>
-      </c>
-      <c r="N16" s="7">
-        <v>146507</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>975</v>
-      </c>
-      <c r="D17" s="7">
-        <v>648955</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>898</v>
-      </c>
-      <c r="I17" s="7">
-        <v>600121</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1873</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1249077</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1077</v>
-      </c>
-      <c r="D18" s="7">
-        <v>716555</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I18" s="7">
-        <v>679029</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1395584</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2233,8 +2074,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B9098F-48AD-4724-9F25-EF00BE6573C0}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37451907-C87B-46BB-85FD-D465299C7305}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2250,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2351,96 +2192,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10999</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14506</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>25505</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>81370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="I5" s="7">
+        <v>71686</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>153056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,151 +2294,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>14506</v>
+        <v>50366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I7" s="7">
-        <v>10999</v>
+        <v>49577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>25505</v>
+        <v>99943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>100</v>
+        <v>578</v>
       </c>
       <c r="D8" s="7">
-        <v>71686</v>
+        <v>397524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
+        <v>625</v>
+      </c>
+      <c r="I8" s="7">
+        <v>438213</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="7">
-        <v>81370</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="M8" s="7">
-        <v>219</v>
+        <v>1203</v>
       </c>
       <c r="N8" s="7">
-        <v>153056</v>
+        <v>835737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,153 +2449,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>649</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>447890</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>699</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>487790</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1348</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>935680</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>49577</v>
+        <v>11854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>50366</v>
+        <v>17200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>99943</v>
+        <v>29054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>625</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>438213</v>
+        <v>151464</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>578</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>397524</v>
+        <v>153151</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>1203</v>
+        <v>431</v>
       </c>
       <c r="N11" s="7">
-        <v>835737</v>
+        <v>304616</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,153 +2604,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>699</v>
+        <v>231</v>
       </c>
       <c r="D12" s="7">
-        <v>487790</v>
+        <v>163318</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>649</v>
+        <v>241</v>
       </c>
       <c r="I12" s="7">
-        <v>447890</v>
+        <v>170351</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1348</v>
+        <v>472</v>
       </c>
       <c r="N12" s="7">
-        <v>935680</v>
+        <v>333670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>17200</v>
+        <v>73218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I13" s="7">
-        <v>11854</v>
+        <v>81283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>29054</v>
+        <v>154501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>912</v>
       </c>
       <c r="D14" s="7">
-        <v>153151</v>
+        <v>630359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>215</v>
+        <v>941</v>
       </c>
       <c r="I14" s="7">
-        <v>151464</v>
+        <v>663050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>431</v>
+        <v>1853</v>
       </c>
       <c r="N14" s="7">
-        <v>304616</v>
+        <v>1293409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,216 +2759,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>241</v>
+        <v>1014</v>
       </c>
       <c r="D15" s="7">
-        <v>170351</v>
+        <v>703577</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>231</v>
+        <v>1061</v>
       </c>
       <c r="I15" s="7">
-        <v>163318</v>
+        <v>744333</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>472</v>
+        <v>2075</v>
       </c>
       <c r="N15" s="7">
-        <v>333670</v>
+        <v>1447910</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>120</v>
-      </c>
-      <c r="D16" s="7">
-        <v>81283</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>102</v>
-      </c>
-      <c r="I16" s="7">
-        <v>73218</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>222</v>
-      </c>
-      <c r="N16" s="7">
-        <v>154501</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>942</v>
-      </c>
-      <c r="D17" s="7">
-        <v>663691</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>912</v>
-      </c>
-      <c r="I17" s="7">
-        <v>630359</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1854</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1294050</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744974</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703577</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2076</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1448551</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3134,8 +2825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D68F5-5CBB-4814-AFFC-67221C78001F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AC28B2-3034-4EFC-9DE9-87166B88F1B0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3151,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3252,88 +2943,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5100</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5060</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10160</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53714</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I5" s="7">
+        <v>63554</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="N5" s="7">
+        <v>117269</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,147 +3045,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="7">
+        <v>58814</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127429</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>5060</v>
+        <v>44280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>5100</v>
+        <v>46705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="N7" s="7">
-        <v>10160</v>
+        <v>90984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="D8" s="7">
-        <v>63554</v>
+        <v>423305</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="I8" s="7">
-        <v>53714</v>
+        <v>437069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>172</v>
+        <v>1263</v>
       </c>
       <c r="N8" s="7">
-        <v>117269</v>
+        <v>860375</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,153 +3200,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>706</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>467585</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>688</v>
       </c>
       <c r="I9" s="7">
-        <v>58814</v>
+        <v>483774</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>187</v>
+        <v>1394</v>
       </c>
       <c r="N9" s="7">
-        <v>127429</v>
+        <v>951359</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>46705</v>
+        <v>16160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>44280</v>
+        <v>16887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>90984</v>
+        <v>33047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>622</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7">
-        <v>437069</v>
+        <v>154378</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>641</v>
+        <v>245</v>
       </c>
       <c r="I11" s="7">
-        <v>423305</v>
+        <v>169270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>1263</v>
+        <v>476</v>
       </c>
       <c r="N11" s="7">
-        <v>860375</v>
+        <v>323649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,153 +3355,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>688</v>
+        <v>255</v>
       </c>
       <c r="D12" s="7">
-        <v>483774</v>
+        <v>170538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>706</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>467585</v>
+        <v>186157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1394</v>
+        <v>524</v>
       </c>
       <c r="N12" s="7">
-        <v>951359</v>
+        <v>356696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7">
-        <v>16887</v>
+        <v>65539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>16160</v>
+        <v>68652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="N13" s="7">
-        <v>33047</v>
+        <v>134191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>245</v>
+        <v>952</v>
       </c>
       <c r="D14" s="7">
-        <v>169270</v>
+        <v>631399</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
-        <v>231</v>
+        <v>959</v>
       </c>
       <c r="I14" s="7">
-        <v>154378</v>
+        <v>669894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
-        <v>476</v>
+        <v>1911</v>
       </c>
       <c r="N14" s="7">
-        <v>323649</v>
+        <v>1301292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,216 +3510,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>269</v>
+        <v>1049</v>
       </c>
       <c r="D15" s="7">
-        <v>186157</v>
+        <v>696938</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>255</v>
+        <v>1056</v>
       </c>
       <c r="I15" s="7">
-        <v>170538</v>
+        <v>738546</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>524</v>
+        <v>2105</v>
       </c>
       <c r="N15" s="7">
-        <v>356696</v>
+        <v>1435483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>97</v>
-      </c>
-      <c r="D16" s="7">
-        <v>68652</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="7">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65539</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="7">
-        <v>194</v>
-      </c>
-      <c r="N16" s="7">
-        <v>134191</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>959</v>
-      </c>
-      <c r="D17" s="7">
-        <v>669894</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="7">
-        <v>952</v>
-      </c>
-      <c r="I17" s="7">
-        <v>631399</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1911</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1301293</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1056</v>
-      </c>
-      <c r="D18" s="7">
-        <v>738546</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1049</v>
-      </c>
-      <c r="I18" s="7">
-        <v>696938</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2105</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1435484</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4023,8 +3576,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C3203F-85C3-4515-940B-855AB88CB2D6}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D140CC-2B56-433A-9BD6-2E2E2F9C7D43}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4040,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4141,96 +3694,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4131</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>8787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50547</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>53217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>103764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,151 +3796,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>8787</v>
+        <v>43204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7">
-        <v>4356</v>
+        <v>52384</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="N7" s="7">
-        <v>13143</v>
+        <v>95589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>72</v>
+        <v>575</v>
       </c>
       <c r="D8" s="7">
-        <v>49970</v>
+        <v>415300</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
-        <v>61</v>
+        <v>586</v>
       </c>
       <c r="I8" s="7">
-        <v>46846</v>
+        <v>463808</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
-        <v>133</v>
+        <v>1161</v>
       </c>
       <c r="N8" s="7">
-        <v>96816</v>
+        <v>879108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,153 +3951,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>458504</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>655</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516192</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1296</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>974697</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>52088</v>
+        <v>12384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>44673</v>
+        <v>21625</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>96761</v>
+        <v>34009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>586</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7">
-        <v>439855</v>
+        <v>137167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>575</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>403268</v>
+        <v>161724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
-        <v>1161</v>
+        <v>416</v>
       </c>
       <c r="N11" s="7">
-        <v>843123</v>
+        <v>298891</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,153 +4106,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>491943</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>447941</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1296</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>939884</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>21331</v>
+        <v>59719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I13" s="7">
-        <v>12623</v>
+        <v>82796</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="N13" s="7">
-        <v>33954</v>
+        <v>142515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>845</v>
       </c>
       <c r="D14" s="7">
-        <v>153252</v>
+        <v>603014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>865</v>
       </c>
       <c r="I14" s="7">
-        <v>138747</v>
+        <v>678749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
-        <v>416</v>
+        <v>1710</v>
       </c>
       <c r="N14" s="7">
-        <v>291998</v>
+        <v>1281763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,216 +4261,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>662733</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761545</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1916</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1424278</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>111</v>
-      </c>
-      <c r="D16" s="7">
-        <v>82206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7">
-        <v>95</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61652</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="7">
-        <v>206</v>
-      </c>
-      <c r="N16" s="7">
-        <v>143858</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>865</v>
-      </c>
-      <c r="D17" s="7">
-        <v>643076</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H17" s="7">
-        <v>846</v>
-      </c>
-      <c r="I17" s="7">
-        <v>590032</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1711</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1233109</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725282</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>651684</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1376967</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
